--- a/biology/Médecine/Pandémie_de_Covid-19_à_Djibouti/Pandémie_de_Covid-19_à_Djibouti.xlsx
+++ b/biology/Médecine/Pandémie_de_Covid-19_à_Djibouti/Pandémie_de_Covid-19_à_Djibouti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_%C3%A0_Djibouti</t>
+          <t>Pandémie_de_Covid-19_à_Djibouti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
 La pandémie de Covid-19 à Djibouti démarre officiellement le 18 mars 2020. À la date du 14 janvier 2024, le bilan est de 189 morts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_%C3%A0_Djibouti</t>
+          <t>Pandémie_de_Covid-19_à_Djibouti</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Djibouti accueille plusieurs bases militaires des grandes puissances mondiales (la Chine, les États-Unis, la France). Le premier cas confirmé à Djibouti est un membre de l'armée espagnole[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Djibouti accueille plusieurs bases militaires des grandes puissances mondiales (la Chine, les États-Unis, la France). Le premier cas confirmé à Djibouti est un membre de l'armée espagnole.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_%C3%A0_Djibouti</t>
+          <t>Pandémie_de_Covid-19_à_Djibouti</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Confinement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier confinement est promulgué le 18 mars, date du premier cas, pour le 27 mars jusqu'au 11 mai 2020, date d'un déconfinement progressif. En date du 18 mars 2020, Djibouti a suspendu avant même le confinement les vols internationaux et la fermeture des écoles[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier confinement est promulgué le 18 mars, date du premier cas, pour le 27 mars jusqu'au 11 mai 2020, date d'un déconfinement progressif. En date du 18 mars 2020, Djibouti a suspendu avant même le confinement les vols internationaux et la fermeture des écoles.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_%C3%A0_Djibouti</t>
+          <t>Pandémie_de_Covid-19_à_Djibouti</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chronologie est basée sur les chiffres de l'université Johns-Hopkins[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chronologie est basée sur les chiffres de l'université Johns-Hopkins.
 Le 25 mars 2020, le cap des 10 cas est dépassé. Le nombre de cas de Covid-19 confirmés est de 11.
 Le 8 avril 2020, le cap des 100 cas est dépassé. Le nombre de cas de Covid-19 confirmés est de 135.
 Le 10 avril, une personne atteinte du Covid-19 meurt.
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_%C3%A0_Djibouti</t>
+          <t>Pandémie_de_Covid-19_à_Djibouti</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,6 +632,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_%C3%A0_Djibouti</t>
+          <t>Pandémie_de_Covid-19_à_Djibouti</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,7 +659,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Pandémie de Covid-19 en Afrique</t>
         </is>
